--- a/trunk/PhD/0005-dqs/experiment-table.xlsx
+++ b/trunk/PhD/0005-dqs/experiment-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
   <si>
     <t>Shuffle Subseasonal</t>
   </si>
@@ -69,6 +69,69 @@
   </si>
   <si>
     <t>Variable</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>prec</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>CROPGRO</t>
+  </si>
+  <si>
+    <t>Ncore</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>tmax</t>
+  </si>
+  <si>
+    <t>wyear</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>tmin</t>
+  </si>
+  <si>
+    <t>yield</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>running</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Summarise</t>
   </si>
 </sst>
 </file>
@@ -118,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -132,6 +195,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -551,13 +615,320 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/PhD/0005-dqs/experiment-table.xlsx
+++ b/trunk/PhD/0005-dqs/experiment-table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="37">
   <si>
     <t>Shuffle Subseasonal</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Summarise</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -617,7 +623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -686,6 +694,15 @@
       </c>
       <c r="D3" t="s">
         <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">

--- a/trunk/PhD/0005-dqs/experiment-table.xlsx
+++ b/trunk/PhD/0005-dqs/experiment-table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="37">
   <si>
     <t>Shuffle Subseasonal</t>
   </si>
@@ -623,9 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -718,6 +716,15 @@
       <c r="D4" t="s">
         <v>27</v>
       </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -732,6 +739,15 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -746,6 +762,15 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -760,6 +785,15 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -774,6 +808,15 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -788,6 +831,15 @@
       <c r="D9" t="s">
         <v>26</v>
       </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -802,6 +854,15 @@
       <c r="D10" t="s">
         <v>27</v>
       </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -815,6 +876,15 @@
       </c>
       <c r="D11" t="s">
         <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">

--- a/trunk/PhD/0005-dqs/experiment-table.xlsx
+++ b/trunk/PhD/0005-dqs/experiment-table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="37">
   <si>
     <t>Shuffle Subseasonal</t>
   </si>
@@ -670,14 +670,17 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>0.56999999999999995</v>
+      <c r="E2" t="s">
+        <v>35</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -702,6 +705,9 @@
       <c r="G3" t="s">
         <v>36</v>
       </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -725,6 +731,9 @@
       <c r="G4" t="s">
         <v>36</v>
       </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -748,6 +757,9 @@
       <c r="G5" t="s">
         <v>36</v>
       </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -771,6 +783,9 @@
       <c r="G6" t="s">
         <v>36</v>
       </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -794,6 +809,9 @@
       <c r="G7" t="s">
         <v>36</v>
       </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -817,6 +835,9 @@
       <c r="G8" t="s">
         <v>36</v>
       </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -840,6 +861,9 @@
       <c r="G9" t="s">
         <v>36</v>
       </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -863,6 +887,9 @@
       <c r="G10" t="s">
         <v>36</v>
       </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -886,6 +913,9 @@
       <c r="G11" t="s">
         <v>36</v>
       </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -900,6 +930,15 @@
       <c r="D12" t="s">
         <v>31</v>
       </c>
+      <c r="E12">
+        <v>72</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -914,6 +953,15 @@
       <c r="D13" t="s">
         <v>23</v>
       </c>
+      <c r="E13">
+        <v>57</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -928,6 +976,15 @@
       <c r="D14" t="s">
         <v>24</v>
       </c>
+      <c r="E14">
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -942,6 +999,15 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
+      <c r="E15">
+        <v>64</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -957,7 +1023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -971,7 +1037,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -985,7 +1051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -999,7 +1065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1011,6 +1077,15 @@
       </c>
       <c r="D20" t="s">
         <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/PhD/0005-dqs/experiment-table.xlsx
+++ b/trunk/PhD/0005-dqs/experiment-table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="43">
   <si>
     <t>Shuffle Subseasonal</t>
   </si>
@@ -138,6 +138,24 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>EcoCrop</t>
+  </si>
+  <si>
+    <t>andromeda</t>
+  </si>
+  <si>
+    <t>uol-laptop</t>
+  </si>
+  <si>
+    <t>tmean</t>
+  </si>
+  <si>
+    <t>spatial</t>
+  </si>
+  <si>
+    <t>compressing</t>
   </si>
 </sst>
 </file>
@@ -621,13 +639,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -937,7 +960,7 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -960,7 +983,7 @@
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -983,7 +1006,7 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1006,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1022,6 +1045,15 @@
       <c r="D16" t="s">
         <v>24</v>
       </c>
+      <c r="E16">
+        <v>64</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1036,6 +1068,15 @@
       <c r="D17" t="s">
         <v>31</v>
       </c>
+      <c r="E17">
+        <v>57</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1050,6 +1091,15 @@
       <c r="D18" t="s">
         <v>24</v>
       </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1064,6 +1114,15 @@
       <c r="D19" t="s">
         <v>31</v>
       </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1085,7 +1144,214 @@
         <v>5</v>
       </c>
       <c r="G20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/PhD/0005-dqs/experiment-table.xlsx
+++ b/trunk/PhD/0005-dqs/experiment-table.xlsx
@@ -643,7 +643,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1006,7 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">

--- a/trunk/PhD/0005-dqs/experiment-table.xlsx
+++ b/trunk/PhD/0005-dqs/experiment-table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="42">
   <si>
     <t>Shuffle Subseasonal</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>spatial</t>
-  </si>
-  <si>
-    <t>compressing</t>
   </si>
 </sst>
 </file>
@@ -642,8 +639,8 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +980,7 @@
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1045,11 +1042,11 @@
       <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>64</v>
+      <c r="E16" t="s">
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
         <v>32</v>
@@ -1213,7 +1210,7 @@
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">

--- a/trunk/PhD/0005-dqs/experiment-table.xlsx
+++ b/trunk/PhD/0005-dqs/experiment-table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="41">
   <si>
     <t>Shuffle Subseasonal</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>climate</t>
-  </si>
-  <si>
-    <t>running</t>
   </si>
   <si>
     <t>Run</t>
@@ -639,8 +636,8 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,10 +668,10 @@
         <v>22</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -691,16 +688,16 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -717,16 +714,16 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -743,16 +740,16 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -769,16 +766,16 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -795,16 +792,16 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -821,16 +818,16 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -847,16 +844,16 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -873,16 +870,16 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -899,16 +896,16 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -925,16 +922,16 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -957,7 +954,10 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -980,7 +980,10 @@
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1003,7 +1006,10 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1026,7 +1032,10 @@
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1043,16 +1052,19 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1072,10 +1084,13 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1089,16 +1104,19 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1112,16 +1130,19 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19">
         <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1135,18 +1156,21 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20">
         <v>5</v>
       </c>
       <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -1158,41 +1182,41 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21">
         <v>20</v>
       </c>
       <c r="G21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22">
         <v>20</v>
       </c>
       <c r="G22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -1204,18 +1228,18 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23">
         <v>20</v>
       </c>
       <c r="G23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1224,44 +1248,44 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24">
         <v>20</v>
       </c>
       <c r="G24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
         <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" t="s">
-        <v>38</v>
       </c>
       <c r="F25">
         <v>20</v>
       </c>
       <c r="G25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -1270,21 +1294,21 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26">
         <v>20</v>
       </c>
       <c r="G26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -1296,41 +1320,41 @@
         <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
       <c r="G27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28">
         <v>5</v>
       </c>
       <c r="G28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -1342,13 +1366,13 @@
         <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29">
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
